--- a/Input_files/Strategies.xlsx
+++ b/Input_files/Strategies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Backtesting\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CC15A0-F8E8-4294-91F6-8719C263A16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BAFA2F-59B2-42AF-8695-C51E0C00231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1EEBE60A-616E-43E0-89E0-E42973C85DA2}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>sma_crossover_system</t>
   </si>
   <si>
-    <t>wma20_system</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>roc_system</t>
+  </si>
+  <si>
+    <t>wma20_macd_system</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -510,10 +510,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>30</v>

--- a/Input_files/Strategies.xlsx
+++ b/Input_files/Strategies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Backtesting\Input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gaurik Shah\PycharmProjects\Backtesting\Input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BAFA2F-59B2-42AF-8695-C51E0C00231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720767D8-E835-4697-86B9-A420FB0C5CD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1EEBE60A-616E-43E0-89E0-E42973C85DA2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1EEBE60A-616E-43E0-89E0-E42973C85DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategies" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Parameter_1</t>
   </si>
@@ -72,19 +63,94 @@
     <t>rsi50_system</t>
   </si>
   <si>
+    <t>assymetric_system</t>
+  </si>
+  <si>
+    <t>bband_system</t>
+  </si>
+  <si>
+    <t>body_outside_band_system</t>
+  </si>
+  <si>
+    <t>breakout_system</t>
+  </si>
+  <si>
+    <t>expanding_bollinger_band_system</t>
+  </si>
+  <si>
+    <t>island_reversal_system</t>
+  </si>
+  <si>
+    <t>kchannel_system</t>
+  </si>
+  <si>
+    <t>keltner_system</t>
+  </si>
+  <si>
+    <t>ma_trailing_stop_system</t>
+  </si>
+  <si>
+    <t>macd_system</t>
+  </si>
+  <si>
+    <t>oscillator_system</t>
+  </si>
+  <si>
+    <t>pattern_system</t>
+  </si>
+  <si>
+    <t>pattern_volume_system</t>
+  </si>
+  <si>
+    <t>rebound_system</t>
+  </si>
+  <si>
+    <t>regression_crossover_system</t>
+  </si>
+  <si>
+    <t>roc_system</t>
+  </si>
+  <si>
+    <t>roc_veolocity_system</t>
+  </si>
+  <si>
+    <t>rocma_system</t>
+  </si>
+  <si>
+    <t>rsi2_50sma_system</t>
+  </si>
+  <si>
+    <t>rsi2_system</t>
+  </si>
+  <si>
+    <t>rsi50_55sma_system</t>
+  </si>
+  <si>
+    <t>seasonal_long_system</t>
+  </si>
+  <si>
+    <t>seasonal_short_system</t>
+  </si>
+  <si>
     <t>sma_crossover_system</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>roc_system</t>
+    <t>stochastics_system</t>
+  </si>
+  <si>
+    <t>vortex_system</t>
   </si>
   <si>
     <t>wma20_macd_system</t>
+  </si>
+  <si>
+    <t>rsi2sma50sl2_system</t>
+  </si>
+  <si>
+    <t>seasonal_short_sma_system</t>
+  </si>
+  <si>
+    <t>series3_system</t>
   </si>
 </sst>
 </file>
@@ -442,19 +508,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7629381A-9450-41EE-BD0A-050C6D114F49}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -489,48 +555,159 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>75</v>
-      </c>
-      <c r="E5">
-        <v>120</v>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
